--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -1,26 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Residencia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFFEB9A-C626-420F-B87A-10E62C335CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>H-total</t>
+  </si>
+  <si>
+    <t>No. Día</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Descipción</t>
+  </si>
+  <si>
+    <t>Horas Total</t>
+  </si>
+  <si>
+    <t>Restan</t>
+  </si>
+  <si>
+    <t>Curso de Git, Github/ Instalacion de SQL SERVER / Conexión a la base de datos ACC MEX</t>
+  </si>
+  <si>
+    <t>Dias de trabajo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +69,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +115,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +416,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="82.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <f ca="1">TODAY()</f>
+        <v>44013</v>
+      </c>
+      <c r="D3" s="5">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <f>H2 - (SUM(D3:D23))</f>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <f>SUM(B3:B23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BFFEB9A-C626-420F-B87A-10E62C335CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFCAC70-8A93-4CAE-8E62-3E0F887BEE28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>H-total</t>
   </si>
   <si>
-    <t>No. Día</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -55,13 +52,22 @@
   </si>
   <si>
     <t>Dias de trabajo</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Hrs acomuladas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación de 27 tablas de la base de datos </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +82,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,8 +115,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,11 +130,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,6 +169,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,186 +462,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
     <col min="5" max="5" width="82.140625" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="12">
+        <f xml:space="preserve"> (SUM(D3:D25))</f>
+        <v>16</v>
+      </c>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
       <c r="C3" s="7">
-        <f ca="1">TODAY()</f>
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="D3" s="5">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
-        <f>H2 - (SUM(D3:D23))</f>
-        <v>494</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="3"/>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <f>SUM(B3:B23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
+      <c r="G3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="12">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <f>(IF(C4="",0,1+B3))</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="8">
+        <v>44015</v>
+      </c>
+      <c r="D4" s="6">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12">
+        <f>H3 - (SUM(D3:D23))</f>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="str">
+        <f>(IF(C5="","",1+B4))</f>
+        <v/>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
+      <c r="G5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="12">
+        <f>MAX(B3:B23)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="str">
+        <f t="shared" ref="B6:B23" si="0">(IF(C6="","",1+B5))</f>
+        <v/>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
+      <c r="B17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="B18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="B19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
+      <c r="B20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="5"/>
+      <c r="B21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="B22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="5"/>
+      <c r="B23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFCAC70-8A93-4CAE-8E62-3E0F887BEE28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C58C1-23C3-40A5-BFD7-85CB973FA202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>H-total</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">Documentación de 27 tablas de la base de datos </t>
+  </si>
+  <si>
+    <t>Documentacion de 30 Procediminetos Almacenados de la base de datos ACC MEX</t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +500,7 @@
       </c>
       <c r="H2" s="12">
         <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J2" s="9"/>
     </row>
@@ -540,23 +543,29 @@
       </c>
       <c r="H4" s="12">
         <f>H3 - (SUM(D3:D23))</f>
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="str">
+      <c r="B5" s="10">
         <f>(IF(C5="","",1+B4))</f>
-        <v/>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44018</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="12">
         <f>MAX(B3:B23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702C58C1-23C3-40A5-BFD7-85CB973FA202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56214653-7629-4AC9-ACAD-9D4FC34679E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1260" windowWidth="13680" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>H-total</t>
   </si>
@@ -63,7 +63,10 @@
     <t xml:space="preserve">Documentación de 27 tablas de la base de datos </t>
   </si>
   <si>
-    <t>Documentacion de 30 Procediminetos Almacenados de la base de datos ACC MEX</t>
+    <t>Documentacion de 20 Procediminetos Almacenados de la base de datos ACC MEX</t>
+  </si>
+  <si>
+    <t>Documentacion de 24 Procediminetos Almacenados de la base de datos ACC MEX</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +503,7 @@
       </c>
       <c r="H2" s="12">
         <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J2" s="9"/>
     </row>
@@ -543,7 +546,7 @@
       </c>
       <c r="H4" s="12">
         <f>H3 - (SUM(D3:D23))</f>
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -558,24 +561,30 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="12">
         <f>MAX(B3:B23)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="str">
+      <c r="B6" s="10">
         <f t="shared" ref="B6:B23" si="0">(IF(C6="","",1+B5))</f>
-        <v/>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>44019</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="str">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56214653-7629-4AC9-ACAD-9D4FC34679E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D976C2C-FC46-42A1-B20D-26BE09CB7077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1260" windowWidth="13680" windowHeight="8055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>H-total</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Documentacion de 24 Procediminetos Almacenados de la base de datos ACC MEX</t>
+  </si>
+  <si>
+    <t>Correccion de 30 Procedimientos almacenados de la base de datos ACC MEX</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,9 +183,6 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -188,6 +194,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,17 +511,17 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>28</v>
-      </c>
-      <c r="J2" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" s="7">
@@ -520,37 +533,37 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <f>(IF(C4="",0,1+B3))</f>
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>44015</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="14">
         <v>10</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <f>H3 - (SUM(D3:D23))</f>
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f>(IF(C5="","",1+B4))</f>
         <v>3</v>
       </c>
@@ -563,49 +576,55 @@
       <c r="E5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <f>MAX(B3:B23)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <f t="shared" ref="B6:B23" si="0">(IF(C6="","",1+B5))</f>
         <v>4</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="13">
         <v>44019</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="14">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="2"/>
+      <c r="B7" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>44021</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="str">
+      <c r="B9" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -614,7 +633,7 @@
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="str">
+      <c r="B10" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -623,7 +642,7 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="str">
+      <c r="B11" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -632,7 +651,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="str">
+      <c r="B12" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -641,7 +660,7 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="str">
+      <c r="B13" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -650,7 +669,7 @@
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="str">
+      <c r="B14" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -659,7 +678,7 @@
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="str">
+      <c r="B15" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -668,7 +687,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="str">
+      <c r="B16" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -677,7 +696,7 @@
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="str">
+      <c r="B17" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -686,7 +705,7 @@
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="str">
+      <c r="B18" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -695,7 +714,7 @@
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="str">
+      <c r="B19" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -704,7 +723,7 @@
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="str">
+      <c r="B20" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -713,7 +732,7 @@
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="str">
+      <c r="B21" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -722,7 +741,7 @@
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="str">
+      <c r="B22" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -731,7 +750,7 @@
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="str">
+      <c r="B23" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D976C2C-FC46-42A1-B20D-26BE09CB7077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C7A181-7820-4F4A-9B6C-691EB1C2469A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>H-total</t>
   </si>
@@ -63,13 +63,19 @@
     <t xml:space="preserve">Documentación de 27 tablas de la base de datos </t>
   </si>
   <si>
-    <t>Documentacion de 20 Procediminetos Almacenados de la base de datos ACC MEX</t>
-  </si>
-  <si>
-    <t>Documentacion de 24 Procediminetos Almacenados de la base de datos ACC MEX</t>
-  </si>
-  <si>
-    <t>Correccion de 30 Procedimientos almacenados de la base de datos ACC MEX</t>
+    <t>Diseño de vistas para la aplicación "Pantallas" en Adobe Illustrator (MenuPrincipal)</t>
+  </si>
+  <si>
+    <t>Analisis de codigo, pruebas de codigo original, toma de decisión para rehacer el sistema de "Pantallas</t>
+  </si>
+  <si>
+    <t>Documentacion de 24 Procediminetos Almacenados de la base de datos ACC MEX TEST</t>
+  </si>
+  <si>
+    <t>Documentacion de 20 Procediminetos Almacenados de la base de datos ACC MEX TEST</t>
+  </si>
+  <si>
+    <t>Correccion de 30 Procedimientos almacenados de la base de datos ACC MEX TEST</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +498,7 @@
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="82.140625" customWidth="1"/>
+    <col min="5" max="5" width="88.5703125" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -516,7 +522,7 @@
       </c>
       <c r="H2" s="11">
         <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -549,7 +555,7 @@
         <v>44015</v>
       </c>
       <c r="D4" s="14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>9</v>
@@ -559,7 +565,7 @@
       </c>
       <c r="H4" s="11">
         <f>H3 - (SUM(D3:D23))</f>
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -574,14 +580,14 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="11">
         <f>MAX(B3:B23)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -596,7 +602,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -611,26 +617,38 @@
         <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="9">
+        <f>(IF(C8="","",1+B7))</f>
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <v>44027</v>
+      </c>
+      <c r="D8" s="14">
+        <v>4</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="9">
+        <f>(IF(C9="","",1+B8))</f>
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44026</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="str">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C7A181-7820-4F4A-9B6C-691EB1C2469A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F9674E-346F-434B-8EF0-CB141A06933A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>H-total</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Correccion de 30 Procedimientos almacenados de la base de datos ACC MEX TEST</t>
+  </si>
+  <si>
+    <t>Creacion de diseño de vistas para par el programa "Pantallas"</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +525,7 @@
       </c>
       <c r="H2" s="11">
         <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -565,7 +568,7 @@
       </c>
       <c r="H4" s="11">
         <f>H3 - (SUM(D3:D23))</f>
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -587,7 +590,7 @@
       </c>
       <c r="H5" s="11">
         <f>MAX(B3:B23)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -651,13 +654,19 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>44027</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="str">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F9674E-346F-434B-8EF0-CB141A06933A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BDE214-8A66-49F6-A0F1-89F6870A382B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>H-total</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Creacion de diseño de vistas para par el programa "Pantallas"</t>
+  </si>
+  <si>
+    <t>Configuracion de entorno de desalloro para crear interfaz grafica</t>
+  </si>
+  <si>
+    <t>Creacion de componentes necesarios para ser usados en el diseño de la interfaz</t>
+  </si>
+  <si>
+    <t>Creacion de bases para ventana Loading, ventana menu y sub ventanas para la ventana Editar datos  y ventana dinamica</t>
   </si>
 </sst>
 </file>
@@ -493,7 +502,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +510,7 @@
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="88.5703125" customWidth="1"/>
+    <col min="5" max="5" width="109.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -525,7 +534,7 @@
       </c>
       <c r="H2" s="11">
         <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="J2" s="8"/>
     </row>
@@ -568,7 +577,7 @@
       </c>
       <c r="H4" s="11">
         <f>H3 - (SUM(D3:D23))</f>
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -590,7 +599,7 @@
       </c>
       <c r="H5" s="11">
         <f>MAX(B3:B23)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -669,31 +678,49 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>44028</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>44029</v>
+      </c>
+      <c r="D12" s="6">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="2"/>
+      <c r="B13" s="9">
+        <f>(IF(C13="","",1+B12))</f>
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>44032</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="str">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Residencia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BDE214-8A66-49F6-A0F1-89F6870A382B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791BBD5-6263-491C-A21D-3D2719099A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>H-total</t>
   </si>
@@ -88,13 +88,25 @@
   </si>
   <si>
     <t>Creacion de bases para ventana Loading, ventana menu y sub ventanas para la ventana Editar datos  y ventana dinamica</t>
+  </si>
+  <si>
+    <t>Capasitacion de Material Desing en C#</t>
+  </si>
+  <si>
+    <t>Creacion de diseño en Ventana Loading, Ventana Menuprincipal</t>
+  </si>
+  <si>
+    <t>Modificacion de diseño en ventana Loadin y ventana menuPrincipal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funcionalidad de Ventanas Responsivas, contornos redondeados, animacion de desvaneser de las ventanas Loading, menu principal y ventana EditarDatos </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +128,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +170,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -182,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,27 +235,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,290 +574,315 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="11">
-        <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>59</v>
-      </c>
-      <c r="J2" s="8"/>
+      <c r="G2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="9">
+        <v>500</v>
+      </c>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="13">
         <v>44014</v>
       </c>
       <c r="D3" s="5">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="11">
-        <v>500</v>
+      <c r="G3" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="9">
+        <f xml:space="preserve"> (SUM(D3:D25))</f>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f>(IF(C4="",0,1+B3))</f>
         <v>2</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>44015</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>6</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11">
-        <f>H3 - (SUM(D3:D23))</f>
-        <v>441</v>
+      <c r="H4" s="9">
+        <f>H2 - (SUM(D3:D23))</f>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <f>(IF(C5="","",1+B4))</f>
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="13">
         <v>44018</v>
       </c>
       <c r="D5" s="5">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="9">
         <f>MAX(B3:B23)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <f t="shared" ref="B6:B23" si="0">(IF(C6="","",1+B5))</f>
         <v>4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <v>44019</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>6</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="13">
         <v>44021</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <f>(IF(C8="","",1+B7))</f>
         <v>6</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>44027</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>4</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <f>(IF(C9="","",1+B8))</f>
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="13">
         <v>44026</v>
       </c>
       <c r="D9" s="5">
         <v>6</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="11">
         <v>44027</v>
       </c>
       <c r="D10" s="6">
         <v>7</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="13">
         <v>44028</v>
       </c>
       <c r="D11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="11">
         <v>44029</v>
       </c>
       <c r="D12" s="6">
         <v>5</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <f>(IF(C13="","",1+B12))</f>
         <v>11</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="13">
         <v>44032</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="str">
+      <c r="B14" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44033</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44034</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44035</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44036</v>
+      </c>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="6"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="str">
+      <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="5"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="5"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="str">
+      <c r="B20" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="6"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="str">
+      <c r="B22" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="6"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2791BBD5-6263-491C-A21D-3D2719099A99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7373EAB0-30B8-45B1-A393-2251E9E1CA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>H-total</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve">funcionalidad de Ventanas Responsivas, contornos redondeados, animacion de desvaneser de las ventanas Loading, menu principal y ventana EditarDatos </t>
+  </si>
+  <si>
+    <t>Creacion de modulo de Alertas personalizadas, modificacion de diseño de iconos del menu principal</t>
   </si>
 </sst>
 </file>
@@ -547,7 +550,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,7 +603,7 @@
       </c>
       <c r="H3" s="9">
         <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -622,7 +625,7 @@
       </c>
       <c r="H4" s="9">
         <f>H2 - (SUM(D3:D23))</f>
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -644,7 +647,7 @@
       </c>
       <c r="H5" s="9">
         <f>MAX(B3:B23)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -828,13 +831,19 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="11">
+        <v>44039</v>
+      </c>
+      <c r="D18" s="6">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="str">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7373EAB0-30B8-45B1-A393-2251E9E1CA63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E3B86C-8302-4BE2-AB91-136D38A500FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>H-total</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Creacion de modulo de Alertas personalizadas, modificacion de diseño de iconos del menu principal</t>
+  </si>
+  <si>
+    <t>Creacion de Menu responsibo y personalizado con animaciones de la ventana_EditarDatos</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +606,7 @@
       </c>
       <c r="H3" s="9">
         <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -625,7 +628,7 @@
       </c>
       <c r="H4" s="9">
         <f>H2 - (SUM(D3:D23))</f>
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -647,7 +650,7 @@
       </c>
       <c r="H5" s="9">
         <f>MAX(B3:B23)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -846,13 +849,19 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44040</v>
+      </c>
+      <c r="D19" s="5">
+        <v>7</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="str">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E3B86C-8302-4BE2-AB91-136D38A500FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E042E0F-FE56-44EA-AFF5-2C092889759B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>H-total</t>
   </si>
@@ -106,6 +100,24 @@
   </si>
   <si>
     <t>Creacion de Menu responsibo y personalizado con animaciones de la ventana_EditarDatos</t>
+  </si>
+  <si>
+    <t>Creacion de componentes de la ventana Editar datos, con material design</t>
+  </si>
+  <si>
+    <t>Creacion de tablas en los apartados de ventana Editar Datos</t>
+  </si>
+  <si>
+    <t>Creacion de componentes y distribucion de elementos dentro de la ventana_Dinamica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación de código, creacion de animaciones dentro de la ventan, diseño terminado en la ventana dinamica </t>
+  </si>
+  <si>
+    <t>semanas total</t>
+  </si>
+  <si>
+    <t>mes total</t>
   </si>
 </sst>
 </file>
@@ -142,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -225,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,9 +268,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -268,6 +283,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,337 +597,666 @@
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="9">
-        <v>500</v>
-      </c>
-      <c r="J2" s="7"/>
+      <c r="C2" s="12">
+        <v>44014</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13">
-        <v>44014</v>
-      </c>
-      <c r="D3" s="5">
+        <f>(IF(C3="",0,1+B2))</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>44015</v>
+      </c>
+      <c r="D3" s="10">
         <v>6</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="9">
-        <f xml:space="preserve"> (SUM(D3:D25))</f>
-        <v>88</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
-        <f>(IF(C4="",0,1+B3))</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>44015</v>
-      </c>
-      <c r="D4" s="10">
+        <f>(IF(C4="","",1+B3))</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="12">
+        <v>44018</v>
+      </c>
+      <c r="D4" s="5">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="9">
-        <f>H2 - (SUM(D3:D23))</f>
-        <v>412</v>
+      <c r="E4" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <f>(IF(C5="","",1+B4))</f>
-        <v>3</v>
-      </c>
-      <c r="C5" s="13">
-        <v>44018</v>
-      </c>
-      <c r="D5" s="5">
+        <f t="shared" ref="B5:B22" si="0">(IF(C5="","",1+B4))</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="11">
+        <v>44019</v>
+      </c>
+      <c r="D5" s="10">
         <v>6</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="9">
-        <f>MAX(B3:B23)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B23" si="0">(IF(C6="","",1+B5))</f>
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44021</v>
+      </c>
+      <c r="D6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
-        <v>44019</v>
-      </c>
-      <c r="D6" s="10">
-        <v>6</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>13</v>
+      <c r="E6" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="13">
-        <v>44021</v>
-      </c>
-      <c r="D7" s="5">
+        <f>(IF(C7="","",1+B6))</f>
+        <v>6</v>
+      </c>
+      <c r="C7" s="11">
+        <v>44027</v>
+      </c>
+      <c r="D7" s="10">
         <v>4</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <f>(IF(C8="","",1+B7))</f>
+        <v>7</v>
+      </c>
+      <c r="C8" s="12">
+        <v>44026</v>
+      </c>
+      <c r="D8" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
-        <v>44027</v>
-      </c>
-      <c r="D8" s="10">
-        <v>4</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>11</v>
+      <c r="E8" s="14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
-        <f>(IF(C9="","",1+B8))</f>
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44027</v>
+      </c>
+      <c r="D9" s="6">
         <v>7</v>
       </c>
-      <c r="C9" s="13">
-        <v>44026</v>
-      </c>
-      <c r="D9" s="5">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>10</v>
+      <c r="E9" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C10" s="11">
-        <v>44027</v>
-      </c>
-      <c r="D10" s="6">
-        <v>7</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <v>44028</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C11" s="13">
-        <v>44028</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44029</v>
+      </c>
+      <c r="D11" s="6">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C12" s="11">
-        <v>44029</v>
-      </c>
-      <c r="D12" s="6">
+        <f>(IF(C12="","",1+B11))</f>
+        <v>11</v>
+      </c>
+      <c r="C12" s="12">
+        <v>44032</v>
+      </c>
+      <c r="D12" s="5">
         <v>5</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>17</v>
+      <c r="E12" s="14" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
-        <f>(IF(C13="","",1+B12))</f>
-        <v>11</v>
-      </c>
-      <c r="C13" s="13">
-        <v>44032</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>44033</v>
+      </c>
+      <c r="D13" s="6">
+        <v>6</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C14" s="11">
-        <v>44033</v>
-      </c>
-      <c r="D14" s="6">
-        <v>6</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44034</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C15" s="13">
-        <v>44034</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44035</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="12">
+        <v>44036</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="11">
+        <v>44039</v>
+      </c>
+      <c r="D17" s="6">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="19">
+        <v>44040</v>
+      </c>
+      <c r="D18" s="20">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="11">
+        <v>44043</v>
+      </c>
+      <c r="D19" s="6">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="12">
+        <v>44046</v>
+      </c>
+      <c r="D20" s="5">
+        <v>7</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="9">
+        <f xml:space="preserve"> (SUM(D2:D24))</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="8">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C16" s="11">
-        <v>44035</v>
-      </c>
-      <c r="D16" s="6">
-        <v>2</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="C21" s="21">
+        <v>44047</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="9">
+        <f>H19 - (SUM(D2:D22))</f>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="8">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="13">
-        <v>44036</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C18" s="11">
-        <v>44039</v>
-      </c>
-      <c r="D18" s="6">
+      <c r="C22" s="21">
+        <v>44048</v>
+      </c>
+      <c r="D22" s="5">
         <v>7</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C19" s="11">
-        <v>44040</v>
-      </c>
-      <c r="D19" s="5">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="9">
+        <f>MAX(B2:B22)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="21">
+        <v>44049</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="3"/>
+      <c r="G23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <f>(H22/7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <f>H23/4</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="3"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="8"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="8"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="8"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="8"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="8"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E042E0F-FE56-44EA-AFF5-2C092889759B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1689819A-1395-4B2C-B35F-536139CB5872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>H-total</t>
   </si>
@@ -118,6 +118,39 @@
   </si>
   <si>
     <t>mes total</t>
+  </si>
+  <si>
+    <t>Eliminacion de los grupos en ventana_Dinamica y creacion de 3 Forms de agrupación en la carpeta Contenedores_VentanaDinamica</t>
+  </si>
+  <si>
+    <t>Retoalimentacion y analisis de metodos asincronos en c#</t>
+  </si>
+  <si>
+    <t>Pruebas de metodos asincronos en la ventana menuPrincipal, para conexión de BD</t>
+  </si>
+  <si>
+    <t>Conexión de BD e interfaces graficas / pruebas de funcionamiento y rendimiento</t>
+  </si>
+  <si>
+    <t>Implementacion de metodos asincronos en la ventanas, menuPrincipal, ventana_Dinamica, ventana_EditarDatos</t>
+  </si>
+  <si>
+    <t>Creacion de Form de Loading, para la implementacion de metods asincronos</t>
+  </si>
+  <si>
+    <t>Restrocturar las ventanas menuPrincipal, ventana_Editar datos, ventana_Dinamica a metodos asincronos</t>
+  </si>
+  <si>
+    <t>Creacion de nuevo diseño para ventana_Dinamica usando el estandar de material design de Google</t>
+  </si>
+  <si>
+    <t>Creacion de nuevo diseño para ventana de carga, menuPrincipal usando el estandar de material design de Google</t>
+  </si>
+  <si>
+    <t>Pruebas y demostracion de avance del proyecto en la empresa ACC MEX</t>
+  </si>
+  <si>
+    <t>Preparacion de documentos y firmas de tramites de residencia y ACC MEX</t>
   </si>
 </sst>
 </file>
@@ -243,13 +276,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -276,9 +307,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -297,8 +325,17 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,16 +619,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="109.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="114.5703125" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -610,653 +648,901 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>44014</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>6</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <f>(IF(C3="",0,1+B2))</f>
         <v>2</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>44015</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <f>(IF(C4="","",1+B3))</f>
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>44018</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>6</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
-        <f t="shared" ref="B5:B22" si="0">(IF(C5="","",1+B4))</f>
+      <c r="B5" s="6">
+        <f t="shared" ref="B5:B68" si="0">(IF(C5="","",1+B4))</f>
         <v>4</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <v>44019</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>6</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="18" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>44021</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <f>(IF(C7="","",1+B6))</f>
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <v>44027</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <f>(IF(C8="","",1+B7))</f>
         <v>7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>44026</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <v>44027</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>44028</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="G10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7">
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <v>44029</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="19" t="s">
         <v>17</v>
       </c>
+      <c r="G11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="7">
+        <f xml:space="preserve"> (SUM(D2:D100))</f>
+        <v>173</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <f>(IF(C12="","",1+B11))</f>
         <v>11</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>44032</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="G12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="7">
+        <f>H10 - (SUM(D100))</f>
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <v>44033</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="G13" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="7">
+        <f>MAX(B2:B100)</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>44034</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="G14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14">
+        <f>(H13/7)</f>
+        <v>4.5714285714285712</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <v>44035</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="19" t="s">
         <v>21</v>
       </c>
+      <c r="G15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15">
+        <f>H14/4</f>
+        <v>1.1428571428571428</v>
+      </c>
     </row>
     <row r="16" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>44036</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <v>44039</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="4">
         <v>7</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="14">
         <v>44040</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="15">
         <v>7</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <v>44043</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="4">
         <v>8</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="18" t="s">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44046</v>
+      </c>
+      <c r="D20" s="3">
+        <v>7</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="16">
+        <v>44047</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="16">
+        <v>44048</v>
+      </c>
+      <c r="D22" s="3">
+        <v>7</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="16">
+        <v>44049</v>
+      </c>
+      <c r="D23" s="4">
         <v>3</v>
       </c>
-      <c r="H19" s="9">
+      <c r="E23" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="16">
+        <v>44050</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="16">
+        <v>44053</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C20" s="12">
-        <v>44046</v>
-      </c>
-      <c r="D20" s="5">
-        <v>7</v>
-      </c>
-      <c r="E20" s="2" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="16">
+        <v>44054</v>
+      </c>
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="7">
+        <f xml:space="preserve"> (SUM(D2:D100))</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="C27" s="16">
+        <v>44055</v>
+      </c>
+      <c r="D27" s="4">
         <v>8</v>
       </c>
-      <c r="H20" s="9">
-        <f xml:space="preserve"> (SUM(D2:D24))</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="21">
-        <v>44047</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="E27" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="7">
+        <f>H25 - (SUM(D2:D100))</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="16">
+        <v>44056</v>
+      </c>
+      <c r="D28" s="3">
+        <v>4</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="18" t="s">
+      <c r="H28" s="7">
+        <f>MAX(B2:B100)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="16">
+        <v>44057</v>
+      </c>
+      <c r="D29" s="4">
+        <v>9</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29">
+        <f>(H28/7)</f>
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="16">
+        <v>44058</v>
+      </c>
+      <c r="D30" s="3">
         <v>4</v>
       </c>
-      <c r="H21" s="9">
-        <f>H19 - (SUM(D2:D22))</f>
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="21">
-        <v>44048</v>
-      </c>
-      <c r="D22" s="5">
-        <v>7</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="E30" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30">
+        <f>H29/4</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="16">
+        <v>44059</v>
+      </c>
+      <c r="D31" s="4">
         <v>6</v>
       </c>
-      <c r="H22" s="9">
-        <f>MAX(B2:B22)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="21">
-        <v>44049</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23">
-        <f>(H22/7)</f>
+      <c r="E31" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="16">
+        <v>44060</v>
+      </c>
+      <c r="D32" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24">
-        <f>H23/4</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="3"/>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="21" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="6">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="16">
+        <v>44061</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="2"/>
+      <c r="B34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="2"/>
+      <c r="B36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="3"/>
+      <c r="B37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="2"/>
+      <c r="B38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="16"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="2"/>
+      <c r="B40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C41" s="16"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="2"/>
+      <c r="B42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="3"/>
+      <c r="B43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="20"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="2"/>
+      <c r="B44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="3"/>
+      <c r="B45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="20"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="2"/>
+      <c r="B46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="3"/>
+      <c r="B47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="20"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="2"/>
+      <c r="B48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="3"/>
+      <c r="B49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="20"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="8"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="2"/>
+      <c r="B50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="3"/>
+      <c r="B51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C51" s="16"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="20"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="2"/>
+      <c r="B52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="21"/>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="20"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="2"/>
+      <c r="B54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="21"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="3"/>
+      <c r="B55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="20"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="2"/>
+      <c r="B56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="21"/>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C57" s="16"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="20"/>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="2"/>
+      <c r="B58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="3"/>
+      <c r="B59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C59" s="16"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="20"/>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="2"/>
+      <c r="B60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="21"/>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="3"/>
+      <c r="B61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="20"/>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="2"/>
+      <c r="B62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="21"/>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="3"/>
+      <c r="B63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="20"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="2"/>
+      <c r="B64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="21"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="3"/>
+      <c r="B65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="20"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="2"/>
+      <c r="B66" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="21"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="3"/>
+      <c r="B67" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="20"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="2"/>
+      <c r="B68" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="21"/>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="3"/>
+      <c r="B69" s="6" t="str">
+        <f t="shared" ref="B69:B70" si="1">(IF(C69="","",1+B68))</f>
+        <v/>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="20"/>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="8"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="2"/>
+      <c r="B70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\residencia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1689819A-1395-4B2C-B35F-536139CB5872}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030542B0-5F69-42C4-8357-E97BF4CDE7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>H-total</t>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>Preparacion de documentos y firmas de tramites de residencia y ACC MEX</t>
+  </si>
+  <si>
+    <t>Creacion de modo Oscuro para las ventanas Menu principal y editar datos</t>
+  </si>
+  <si>
+    <t>Creacion de modo Oscuro para las ventana Dinamica y Linea Serial</t>
+  </si>
+  <si>
+    <t>Reunion con el aceso academico y acesor externo</t>
+  </si>
+  <si>
+    <t>Creacion de boton para capturar pantalla</t>
   </si>
 </sst>
 </file>
@@ -619,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +821,7 @@
       </c>
       <c r="H11" s="7">
         <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -853,7 +865,7 @@
       </c>
       <c r="H13" s="7">
         <f>MAX(B2:B100)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -875,7 +887,7 @@
       </c>
       <c r="H14">
         <f>(H13/7)</f>
-        <v>4.5714285714285712</v>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -897,7 +909,7 @@
       </c>
       <c r="H15">
         <f>H14/4</f>
-        <v>1.1428571428571428</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
@@ -924,7 +936,7 @@
         <v>44039</v>
       </c>
       <c r="D17" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" s="20" t="s">
         <v>23</v>
@@ -1075,7 +1087,7 @@
       </c>
       <c r="H26" s="7">
         <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>173</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1097,7 +1109,7 @@
       </c>
       <c r="H27" s="7">
         <f>H25 - (SUM(D2:D100))</f>
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1119,7 +1131,7 @@
       </c>
       <c r="H28" s="7">
         <f>MAX(B2:B100)</f>
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1141,7 +1153,7 @@
       </c>
       <c r="H29">
         <f>(H28/7)</f>
-        <v>4.5714285714285712</v>
+        <v>5.1428571428571432</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1163,7 +1175,7 @@
       </c>
       <c r="H30">
         <f>H29/4</f>
-        <v>1.1428571428571428</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1205,47 +1217,71 @@
         <v>44061</v>
       </c>
       <c r="D33" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="21"/>
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C34" s="10">
+        <v>44077</v>
+      </c>
+      <c r="D34" s="3">
+        <v>6</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="20"/>
+      <c r="B35" s="6">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="16">
+        <v>44078</v>
+      </c>
+      <c r="D35" s="4">
+        <v>6</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="21"/>
+      <c r="B36" s="6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="10">
+        <v>44083</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="20"/>
+      <c r="B37" s="6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C37" s="16">
+        <v>44088</v>
+      </c>
+      <c r="D37" s="4">
+        <v>10</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="str">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{030542B0-5F69-42C4-8357-E97BF4CDE7EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9591EE-D72A-48B3-91F5-92D8EF2FD152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>H-total</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>Creacion de boton para capturar pantalla</t>
+  </si>
+  <si>
+    <t>Entrega de reportes de residencia</t>
+  </si>
+  <si>
+    <t>Capasitacion para desarrollo en wpf con c#</t>
+  </si>
+  <si>
+    <t>Creacion de Login funcional con implementacion de material desing</t>
   </si>
 </sst>
 </file>
@@ -632,22 +641,22 @@
   <dimension ref="B1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="114.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="114.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -662,7 +671,7 @@
       </c>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="6">
         <v>1</v>
       </c>
@@ -676,7 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <f>(IF(C3="",0,1+B2))</f>
         <v>2</v>
@@ -691,7 +700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
         <f>(IF(C4="","",1+B3))</f>
         <v>3</v>
@@ -706,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
         <f t="shared" ref="B5:B68" si="0">(IF(C5="","",1+B4))</f>
         <v>4</v>
@@ -721,7 +730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -736,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <f>(IF(C7="","",1+B6))</f>
         <v>6</v>
@@ -751,7 +760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <f>(IF(C8="","",1+B7))</f>
         <v>7</v>
@@ -766,7 +775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -781,7 +790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -802,7 +811,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -821,10 +830,10 @@
       </c>
       <c r="H11" s="7">
         <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="6">
         <f>(IF(C12="","",1+B11))</f>
         <v>11</v>
@@ -846,7 +855,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -865,10 +874,10 @@
       </c>
       <c r="H13" s="7">
         <f>MAX(B2:B100)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -887,10 +896,10 @@
       </c>
       <c r="H14">
         <f>(H13/7)</f>
-        <v>5.1428571428571432</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>5.5714285714285712</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -909,10 +918,10 @@
       </c>
       <c r="H15">
         <f>H14/4</f>
-        <v>1.2857142857142858</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="26.25" x14ac:dyDescent="0.25">
+        <v>1.3928571428571428</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -927,7 +936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -942,7 +951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -957,7 +966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -972,7 +981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -987,7 +996,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1002,7 +1011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1017,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1032,7 +1041,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1047,7 +1056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1068,7 +1077,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1087,10 +1096,10 @@
       </c>
       <c r="H26" s="7">
         <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1109,10 +1118,10 @@
       </c>
       <c r="H27" s="7">
         <f>H25 - (SUM(D2:D100))</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1131,10 +1140,10 @@
       </c>
       <c r="H28" s="7">
         <f>MAX(B2:B100)</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1153,10 +1162,10 @@
       </c>
       <c r="H29">
         <f>(H28/7)</f>
-        <v>5.1428571428571432</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.5714285714285712</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1175,10 +1184,10 @@
       </c>
       <c r="H30">
         <f>H29/4</f>
-        <v>1.2857142857142858</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.3928571428571428</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="6">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1193,7 +1202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1208,7 +1217,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1223,7 +1232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1238,7 +1247,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1253,7 +1262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1268,7 +1277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1283,34 +1292,52 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="16">
+        <v>44089</v>
+      </c>
+      <c r="D38" s="3">
+        <v>2</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C39" s="16">
+        <v>44123</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="16">
+        <v>44124</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1319,7 +1346,7 @@
       <c r="D41" s="4"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1328,7 +1355,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1337,7 +1364,7 @@
       <c r="D43" s="4"/>
       <c r="E43" s="20"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1346,7 +1373,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1355,7 +1382,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1364,7 +1391,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1373,7 +1400,7 @@
       <c r="D47" s="4"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1382,7 +1409,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1391,7 +1418,7 @@
       <c r="D49" s="4"/>
       <c r="E49" s="20"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1400,7 +1427,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1409,7 +1436,7 @@
       <c r="D51" s="4"/>
       <c r="E51" s="20"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1418,7 +1445,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1427,7 +1454,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="20"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1436,7 +1463,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1445,7 +1472,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="20"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1454,7 +1481,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1463,7 +1490,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="20"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1472,7 +1499,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1481,7 +1508,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1490,7 +1517,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1499,7 +1526,7 @@
       <c r="D61" s="4"/>
       <c r="E61" s="20"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1508,7 +1535,7 @@
       <c r="D62" s="3"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1517,7 +1544,7 @@
       <c r="D63" s="4"/>
       <c r="E63" s="20"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1526,7 +1553,7 @@
       <c r="D64" s="3"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1535,7 +1562,7 @@
       <c r="D65" s="4"/>
       <c r="E65" s="20"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B66" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1544,7 +1571,7 @@
       <c r="D66" s="3"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1553,7 +1580,7 @@
       <c r="D67" s="4"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B68" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1562,7 +1589,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="21"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" s="6" t="str">
         <f t="shared" ref="B69:B70" si="1">(IF(C69="","",1+B68))</f>
         <v/>
@@ -1571,7 +1598,7 @@
       <c r="D69" s="4"/>
       <c r="E69" s="20"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9591EE-D72A-48B3-91F5-92D8EF2FD152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD188C1-B3AF-43CD-881B-C3E45719531A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>H-total</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Creacion de Login funcional con implementacion de material desing</t>
+  </si>
+  <si>
+    <t>modificaciones en funcionalidad UX, diseño, comente código y realice la funcionalidad de la barras progresivas</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
       </c>
       <c r="H11" s="7">
         <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -874,7 +877,7 @@
       </c>
       <c r="H13" s="7">
         <f>MAX(B2:B100)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -896,7 +899,7 @@
       </c>
       <c r="H14">
         <f>(H13/7)</f>
-        <v>5.5714285714285712</v>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -918,7 +921,7 @@
       </c>
       <c r="H15">
         <f>H14/4</f>
-        <v>1.3928571428571428</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -1096,7 +1099,7 @@
       </c>
       <c r="H26" s="7">
         <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -1118,7 +1121,7 @@
       </c>
       <c r="H27" s="7">
         <f>H25 - (SUM(D2:D100))</f>
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -1140,7 +1143,7 @@
       </c>
       <c r="H28" s="7">
         <f>MAX(B2:B100)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -1162,7 +1165,7 @@
       </c>
       <c r="H29">
         <f>(H28/7)</f>
-        <v>5.5714285714285712</v>
+        <v>5.7142857142857144</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -1184,7 +1187,7 @@
       </c>
       <c r="H30">
         <f>H29/4</f>
-        <v>1.3928571428571428</v>
+        <v>1.4285714285714286</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -1301,7 +1304,7 @@
         <v>44089</v>
       </c>
       <c r="D38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>46</v>
@@ -1331,20 +1334,26 @@
         <v>44124</v>
       </c>
       <c r="D40" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="20"/>
+      <c r="B41" s="6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="16">
+        <v>44125</v>
+      </c>
+      <c r="D41" s="4">
+        <v>8</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="6" t="str">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD188C1-B3AF-43CD-881B-C3E45719531A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB41FB32-E867-48B6-8320-51F5237159B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>H-total</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>modificaciones en funcionalidad UX, diseño, comente código y realice la funcionalidad de la barras progresivas</t>
+  </si>
+  <si>
+    <t>correccion de errores en abrir n ventanas, icono incorporado en el software, Cerrecion de errores en metodos asincronos</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
   <dimension ref="B1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +836,7 @@
       </c>
       <c r="H11" s="7">
         <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -877,7 +880,7 @@
       </c>
       <c r="H13" s="7">
         <f>MAX(B2:B100)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -899,7 +902,7 @@
       </c>
       <c r="H14">
         <f>(H13/7)</f>
-        <v>5.7142857142857144</v>
+        <v>5.8571428571428568</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -921,7 +924,7 @@
       </c>
       <c r="H15">
         <f>H14/4</f>
-        <v>1.4285714285714286</v>
+        <v>1.4642857142857142</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -1099,7 +1102,7 @@
       </c>
       <c r="H26" s="7">
         <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
@@ -1121,7 +1124,7 @@
       </c>
       <c r="H27" s="7">
         <f>H25 - (SUM(D2:D100))</f>
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -1143,7 +1146,7 @@
       </c>
       <c r="H28" s="7">
         <f>MAX(B2:B100)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
@@ -1165,7 +1168,7 @@
       </c>
       <c r="H29">
         <f>(H28/7)</f>
-        <v>5.7142857142857144</v>
+        <v>5.8571428571428568</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
@@ -1187,7 +1190,7 @@
       </c>
       <c r="H30">
         <f>H29/4</f>
-        <v>1.4285714285714286</v>
+        <v>1.4642857142857142</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
@@ -1356,13 +1359,19 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="21"/>
+      <c r="B42" s="6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="16">
+        <v>44126</v>
+      </c>
+      <c r="D42" s="3">
+        <v>5</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="6" t="str">

--- a/Reporte_diario.xlsx
+++ b/Reporte_diario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\residencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB41FB32-E867-48B6-8320-51F5237159B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E45B5E-CB88-4695-9B88-2B2EB4C46835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -329,9 +329,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -644,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J70"/>
+  <dimension ref="B1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +684,7 @@
       <c r="D2" s="3">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -702,7 +699,7 @@
       <c r="D3" s="8">
         <v>6</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>9</v>
       </c>
     </row>
@@ -717,13 +714,13 @@
       <c r="D4" s="3">
         <v>6</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B68" si="0">(IF(C5="","",1+B4))</f>
+        <f t="shared" ref="B5:B62" si="0">(IF(C5="","",1+B4))</f>
         <v>4</v>
       </c>
       <c r="C5" s="9">
@@ -732,7 +729,7 @@
       <c r="D5" s="8">
         <v>6</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -747,7 +744,7 @@
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -762,7 +759,7 @@
       <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -777,7 +774,7 @@
       <c r="D8" s="3">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -792,7 +789,7 @@
       <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
     </row>
@@ -807,10 +804,10 @@
       <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="7">
@@ -828,15 +825,15 @@
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="7">
-        <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>226</v>
+        <f xml:space="preserve"> (SUM(D2:D94))</f>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -850,14 +847,14 @@
       <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H12" s="7">
-        <f>H10 - (SUM(D100))</f>
+        <f>H10 - (SUM(D94))</f>
         <v>500</v>
       </c>
     </row>
@@ -872,15 +869,15 @@
       <c r="D13" s="4">
         <v>6</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="7">
-        <f>MAX(B2:B100)</f>
-        <v>41</v>
+        <f>MAX(B2:B94)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
@@ -894,15 +891,15 @@
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="H14">
         <f>(H13/7)</f>
-        <v>5.8571428571428568</v>
+        <v>10.285714285714286</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
@@ -916,15 +913,15 @@
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H15">
         <f>H14/4</f>
-        <v>1.4642857142857142</v>
+        <v>2.5714285714285716</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -938,11 +935,11 @@
       <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -953,26 +950,26 @@
       <c r="D17" s="4">
         <v>8</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>44040</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>7</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -983,11 +980,11 @@
       <c r="D19" s="4">
         <v>8</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -998,247 +995,206 @@
       <c r="D20" s="3">
         <v>7</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>44047</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>44048</v>
       </c>
       <c r="D22" s="3">
         <v>7</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>44049</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>44050</v>
       </c>
       <c r="D24" s="3">
         <v>5</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>44053</v>
       </c>
       <c r="D25" s="4">
         <v>7</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>44054</v>
       </c>
       <c r="D26" s="3">
         <v>6</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="7">
-        <f xml:space="preserve"> (SUM(D2:D100))</f>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>44055</v>
       </c>
       <c r="D27" s="4">
         <v>8</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="7">
-        <f>H25 - (SUM(D2:D100))</f>
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>44056</v>
       </c>
       <c r="D28" s="3">
         <v>4</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" s="7">
-        <f>MAX(B2:B100)</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>44057</v>
       </c>
       <c r="D29" s="4">
         <v>9</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="17" t="s">
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="6">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="H29">
-        <f>(H28/7)</f>
-        <v>5.8571428571428568</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>44058</v>
       </c>
       <c r="D30" s="3">
         <v>4</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G30" s="17" t="s">
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="6">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H30">
-        <f>H29/4</f>
-        <v>1.4642857142857142</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>44059</v>
       </c>
       <c r="D31" s="4">
         <v>6</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="6">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>44060</v>
       </c>
       <c r="D32" s="3">
         <v>3</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="6">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>44061</v>
       </c>
       <c r="D33" s="4">
         <v>3</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="6">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1249,26 +1205,26 @@
       <c r="D34" s="3">
         <v>6</v>
       </c>
-      <c r="E34" s="21" t="s">
+      <c r="E34" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="6">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>44078</v>
       </c>
       <c r="D35" s="4">
         <v>6</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="6">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1279,351 +1235,537 @@
       <c r="D36" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>44088</v>
       </c>
       <c r="D37" s="4">
         <v>10</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="6">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="15">
         <v>44089</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="6">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="15">
         <v>44123</v>
       </c>
       <c r="D39" s="4">
         <v>5</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="6">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>44124</v>
       </c>
       <c r="D40" s="3">
         <v>5</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="6">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>44125</v>
       </c>
       <c r="D41" s="4">
         <v>8</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="6">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="15">
         <v>44126</v>
       </c>
       <c r="D42" s="3">
         <v>5</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="20"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="20"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="21"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="20"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="21"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="20"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="20"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="21"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="20"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="20"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="21"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="20"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="21"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="20"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="21"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="20"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="21"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="20"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="21"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="20"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="21"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="6" t="str">
-        <f t="shared" ref="B69:B70" si="1">(IF(C69="","",1+B68))</f>
-        <v/>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="20"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="6" t="str">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="6">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C43" s="15">
+        <v>44127</v>
+      </c>
+      <c r="D43" s="3">
+        <v>5</v>
+      </c>
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C44" s="15">
+        <v>44128</v>
+      </c>
+      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="E44" s="20"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="6">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="15">
+        <v>44129</v>
+      </c>
+      <c r="D45" s="3">
+        <v>5</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="G45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H45" s="7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C46" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D46" s="3">
+        <v>5</v>
+      </c>
+      <c r="E46" s="20"/>
+      <c r="G46" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="7">
+        <f xml:space="preserve"> (SUM(D2:D94))</f>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="6">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C47" s="15">
+        <v>44133</v>
+      </c>
+      <c r="D47" s="3">
+        <v>5</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="G47" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="7">
+        <f>H45 - (SUM(D2:D94))</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C48" s="15">
+        <v>44134</v>
+      </c>
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="20"/>
+      <c r="G48" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="7">
+        <f>MAX(B2:B94)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="6">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C49" s="15">
+        <v>44135</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="G49" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <f>(H48/7)</f>
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="6">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C50" s="15">
+        <v>44136</v>
+      </c>
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="20"/>
+      <c r="G50" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50">
+        <f>H49/4</f>
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C51" s="15">
+        <v>44137</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="19"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="6">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C52" s="15">
+        <v>44140</v>
+      </c>
+      <c r="D52" s="3">
+        <v>5</v>
+      </c>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="6">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C53" s="15">
+        <v>44141</v>
+      </c>
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
+      <c r="E53" s="19"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="6">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C54" s="15">
+        <v>44142</v>
+      </c>
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C55" s="15">
+        <v>44143</v>
+      </c>
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C56" s="15">
+        <v>44144</v>
+      </c>
+      <c r="D56" s="3">
+        <v>5</v>
+      </c>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="6">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C57" s="15">
+        <v>44147</v>
+      </c>
+      <c r="D57" s="3">
+        <v>5</v>
+      </c>
+      <c r="E57" s="19"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B58" s="6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C58" s="15">
+        <v>44148</v>
+      </c>
+      <c r="D58" s="3">
+        <v>5</v>
+      </c>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C59" s="15">
+        <v>44149</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" s="6">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C60" s="15">
+        <v>44150</v>
+      </c>
+      <c r="D60" s="3">
+        <v>5</v>
+      </c>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B61" s="6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C61" s="15">
+        <v>44151</v>
+      </c>
+      <c r="D61" s="3">
+        <v>5</v>
+      </c>
+      <c r="E61" s="19"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="6">
+        <f t="shared" ref="B62:B73" si="1">(IF(C62="","",1+B61))</f>
+        <v>61</v>
+      </c>
+      <c r="C62" s="15">
+        <v>44152</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="6">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="C63" s="15">
+        <v>44153</v>
+      </c>
+      <c r="D63" s="3">
+        <v>5</v>
+      </c>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="6">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="C64" s="15">
+        <v>44154</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="6">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C65" s="15">
+        <v>44155</v>
+      </c>
+      <c r="D65" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="6">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C66" s="15">
+        <v>44156</v>
+      </c>
+      <c r="D66" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="6">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="C67" s="15">
+        <v>44157</v>
+      </c>
+      <c r="D67" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="6">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C68" s="15">
+        <v>44158</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="6">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="C69" s="15">
+        <v>44159</v>
+      </c>
+      <c r="D69" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="6">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="C70" s="15">
+        <v>44160</v>
+      </c>
+      <c r="D70" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="C71" s="15">
+        <v>44161</v>
+      </c>
+      <c r="D71" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="6">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="C72" s="15">
+        <v>44162</v>
+      </c>
+      <c r="D72" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="6">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="15">
+        <v>44163</v>
+      </c>
+      <c r="D73" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
